--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED1D825-07A4-43F9-8762-262096EAD1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCED91-6AD1-4C7D-8351-E5D47AB67882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Pavan Vasa</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +144,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,15 +466,15 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,10 +488,14 @@
         <v>44754</v>
       </c>
       <c r="E1" s="3">
-        <v>44743</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>44755</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44756</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44757</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -496,7 +506,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -512,7 +522,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -528,8 +538,12 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -540,7 +554,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -556,8 +570,12 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -568,7 +586,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -584,8 +602,12 @@
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -596,7 +618,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -612,8 +634,12 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -624,7 +650,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -640,8 +666,12 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -652,7 +682,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -668,8 +698,12 @@
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -680,7 +714,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -696,8 +730,12 @@
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -708,7 +746,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -724,8 +762,12 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -736,7 +778,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -752,8 +794,12 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -764,7 +810,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -780,8 +826,12 @@
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -792,7 +842,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -808,8 +858,12 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -820,7 +874,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -836,8 +890,12 @@
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -848,7 +906,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -864,8 +922,12 @@
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -876,7 +938,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -892,8 +954,14 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -907,6 +975,12 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCED91-6AD1-4C7D-8351-E5D47AB67882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B22F872-52FC-4E08-AA5F-693320908B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,9 +144,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -466,7 +463,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,14 +487,18 @@
       <c r="E1" s="3">
         <v>44755</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>44756</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>44757</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="3">
+        <v>44760</v>
+      </c>
+      <c r="I1" s="3">
+        <v>44761</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -544,8 +545,12 @@
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -576,8 +581,12 @@
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -608,8 +617,12 @@
       <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -640,8 +653,12 @@
       <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -672,8 +689,12 @@
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -704,8 +725,12 @@
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -736,8 +761,12 @@
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -768,8 +797,12 @@
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -800,8 +833,12 @@
       <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -832,8 +869,12 @@
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -864,8 +905,12 @@
       <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -896,8 +941,12 @@
       <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -928,8 +977,12 @@
       <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -960,8 +1013,14 @@
       <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -981,6 +1040,12 @@
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B22F872-52FC-4E08-AA5F-693320908B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEACABB9-1725-4417-BBF3-CF186DEACDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,6 +144,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,15 +466,15 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +502,9 @@
       <c r="I1" s="3">
         <v>44761</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="4">
+        <v>44744</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -507,7 +512,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -523,7 +528,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -551,7 +556,9 @@
       <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -559,7 +566,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -587,7 +594,9 @@
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -595,7 +604,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -623,7 +632,9 @@
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -631,7 +642,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -659,7 +670,9 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -667,7 +680,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -695,7 +708,9 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -703,7 +718,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -731,7 +746,9 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -739,7 +756,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -767,7 +784,9 @@
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -775,7 +794,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -803,7 +822,9 @@
       <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -811,7 +832,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -839,7 +860,9 @@
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -847,7 +870,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -875,7 +898,9 @@
       <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -883,7 +908,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -911,7 +936,9 @@
       <c r="I13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -919,7 +946,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -947,7 +974,9 @@
       <c r="I14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -955,7 +984,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -983,7 +1012,9 @@
       <c r="I15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -991,7 +1022,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1019,8 +1050,11 @@
       <c r="I16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1046,6 +1080,9 @@
         <v>15</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEACABB9-1725-4417-BBF3-CF186DEACDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D81A34A-8A03-40B9-8B90-C39ED524BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -146,7 +146,7 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -466,15 +466,15 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,17 +502,21 @@
       <c r="I1" s="3">
         <v>44761</v>
       </c>
-      <c r="J1" s="4">
-        <v>44744</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="J1" s="3">
+        <v>44762</v>
+      </c>
+      <c r="K1" s="4">
+        <v>44763</v>
+      </c>
+      <c r="L1" s="3">
+        <v>44764</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -528,7 +532,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -559,14 +563,18 @@
       <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -597,14 +605,18 @@
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -635,14 +647,18 @@
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -673,14 +689,18 @@
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -711,14 +731,18 @@
       <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -749,14 +773,18 @@
       <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -787,14 +815,18 @@
       <c r="J9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -825,14 +857,18 @@
       <c r="J10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -863,14 +899,18 @@
       <c r="J11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -901,14 +941,18 @@
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -939,14 +983,18 @@
       <c r="J13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -977,14 +1025,18 @@
       <c r="J14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1015,14 +1067,18 @@
       <c r="J15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1053,8 +1109,14 @@
       <c r="J16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1083,6 +1145,12 @@
         <v>15</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D81A34A-8A03-40B9-8B90-C39ED524BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF27FE-EBE5-48CD-8A85-EC1A89D3A0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF27FE-EBE5-48CD-8A85-EC1A89D3A0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332FCCEF-DC64-45AF-BFDD-A5AA06A2D609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +147,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -466,15 +469,15 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,12 +514,14 @@
       <c r="L1" s="3">
         <v>44764</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="5">
+        <v>44767</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -532,7 +537,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -569,12 +574,14 @@
       <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -611,12 +618,14 @@
       <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -653,12 +662,14 @@
       <c r="L5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -695,12 +706,14 @@
       <c r="L6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -737,12 +750,14 @@
       <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -779,12 +794,14 @@
       <c r="L8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -821,12 +838,14 @@
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -863,12 +882,14 @@
       <c r="L10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -905,12 +926,14 @@
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -947,12 +970,14 @@
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -989,12 +1014,14 @@
       <c r="L13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1031,12 +1058,14 @@
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1073,12 +1102,14 @@
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1115,8 +1146,11 @@
       <c r="L16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1151,6 +1185,9 @@
         <v>15</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332FCCEF-DC64-45AF-BFDD-A5AA06A2D609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38740BE1-6C42-4AA7-BF9C-3F05B7CD77CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -469,15 +469,15 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,11 +517,13 @@
       <c r="M1" s="5">
         <v>44767</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="5">
+        <v>44768</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -537,7 +539,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -577,11 +579,13 @@
       <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -621,11 +625,13 @@
       <c r="M4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -665,11 +671,13 @@
       <c r="M5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -709,11 +717,13 @@
       <c r="M6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -753,11 +763,13 @@
       <c r="M7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -797,11 +809,13 @@
       <c r="M8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -841,11 +855,13 @@
       <c r="M9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -885,11 +901,13 @@
       <c r="M10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -929,11 +947,13 @@
       <c r="M11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -973,11 +993,13 @@
       <c r="M12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1017,11 +1039,13 @@
       <c r="M13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1061,11 +1085,13 @@
       <c r="M14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1105,11 +1131,13 @@
       <c r="M15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1149,8 +1177,11 @@
       <c r="M16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1188,6 +1219,9 @@
         <v>15</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38740BE1-6C42-4AA7-BF9C-3F05B7CD77CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BB33EE-D805-48DF-A2A6-ADCB607D8090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +150,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC420ACD-8BCE-4ADA-A25D-42C9C16580A4}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +523,9 @@
       <c r="N1" s="5">
         <v>44768</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="6">
+        <v>44769</v>
+      </c>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -582,7 +587,9 @@
       <c r="N3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -628,7 +635,9 @@
       <c r="N4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -674,7 +683,9 @@
       <c r="N5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -720,7 +731,9 @@
       <c r="N6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -766,7 +779,9 @@
       <c r="N7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -812,7 +827,9 @@
       <c r="N8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -858,7 +875,9 @@
       <c r="N9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -904,7 +923,9 @@
       <c r="N10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -950,7 +971,9 @@
       <c r="N11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -996,7 +1019,9 @@
       <c r="N12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1042,7 +1067,9 @@
       <c r="N13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1088,7 +1115,9 @@
       <c r="N14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1134,7 +1163,9 @@
       <c r="N15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1180,8 +1211,11 @@
       <c r="N16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1222,6 +1256,9 @@
         <v>15</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BB33EE-D805-48DF-A2A6-ADCB607D8090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E2002-1B4A-4BAE-B1E4-5E1F3BB3F4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -471,16 +471,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC420ACD-8BCE-4ADA-A25D-42C9C16580A4}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,9 +526,11 @@
       <c r="O1" s="6">
         <v>44769</v>
       </c>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P1" s="5">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -544,7 +546,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -590,9 +592,11 @@
       <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -638,9 +642,11 @@
       <c r="O4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -686,9 +692,11 @@
       <c r="O5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -734,9 +742,11 @@
       <c r="O6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -782,9 +792,11 @@
       <c r="O7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -830,9 +842,11 @@
       <c r="O8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -878,9 +892,11 @@
       <c r="O9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -926,9 +942,11 @@
       <c r="O10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -974,9 +992,11 @@
       <c r="O11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1022,9 +1042,11 @@
       <c r="O12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1070,9 +1092,11 @@
       <c r="O13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1118,9 +1142,11 @@
       <c r="O14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1166,9 +1192,11 @@
       <c r="O15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1214,8 +1242,11 @@
       <c r="O16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1259,6 +1290,9 @@
         <v>15</v>
       </c>
       <c r="O17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E2002-1B4A-4BAE-B1E4-5E1F3BB3F4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16037C25-7A62-4756-84C8-55D9394B47AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,12 +149,7 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,18 +464,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC420ACD-8BCE-4ADA-A25D-42C9C16580A4}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,20 +512,23 @@
       <c r="L1" s="3">
         <v>44764</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="3">
         <v>44767</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="3">
         <v>44768</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="4">
         <v>44769</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="3">
         <v>44770</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="5">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -546,7 +544,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -595,8 +593,11 @@
       <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -645,8 +646,11 @@
       <c r="P4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -695,8 +699,11 @@
       <c r="P5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -745,8 +752,11 @@
       <c r="P6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="P7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -845,8 +858,11 @@
       <c r="P8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -895,8 +911,11 @@
       <c r="P9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -945,8 +964,11 @@
       <c r="P10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -995,8 +1017,11 @@
       <c r="P11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1045,8 +1070,11 @@
       <c r="P12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1095,8 +1123,11 @@
       <c r="P13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1145,8 +1176,11 @@
       <c r="P14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1195,8 +1229,11 @@
       <c r="P15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1245,8 +1282,11 @@
       <c r="P16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1293,6 +1333,9 @@
         <v>15</v>
       </c>
       <c r="P17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16037C25-7A62-4756-84C8-55D9394B47AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F94A3D-604F-4D6B-87A8-ACED98B6956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="20">
   <si>
     <t>Sr.No</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +153,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,18 +468,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC420ACD-8BCE-4ADA-A25D-42C9C16580A4}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +531,11 @@
       <c r="Q1" s="5">
         <v>44771</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="6">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -544,7 +551,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -596,8 +603,11 @@
       <c r="Q3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -649,8 +659,11 @@
       <c r="Q4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -702,8 +715,11 @@
       <c r="Q5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -755,8 +771,11 @@
       <c r="Q6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -808,8 +827,11 @@
       <c r="Q7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -861,8 +883,11 @@
       <c r="Q8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -914,8 +939,11 @@
       <c r="Q9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -967,8 +995,11 @@
       <c r="Q10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1020,8 +1051,11 @@
       <c r="Q11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1073,8 +1107,11 @@
       <c r="Q12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1126,8 +1163,11 @@
       <c r="Q13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1179,8 +1219,11 @@
       <c r="Q14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1232,8 +1275,11 @@
       <c r="Q15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1285,8 +1331,11 @@
       <c r="Q16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1336,6 +1385,9 @@
         <v>15</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F94A3D-604F-4D6B-87A8-ACED98B6956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2DF085-E85F-41DB-9B8B-897332D0D1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -471,7 +468,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +601,7 @@
         <v>15</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -940,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2DF085-E85F-41DB-9B8B-897332D0D1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86509BEA-4BDF-431E-8471-82AAB49BF39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC420ACD-8BCE-4ADA-A25D-42C9C16580A4}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +531,14 @@
       <c r="R1" s="6">
         <v>44774</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="6">
+        <v>44775</v>
+      </c>
+      <c r="T1" s="6">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -548,7 +554,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -603,8 +609,14 @@
       <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -659,8 +671,14 @@
       <c r="R4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -715,8 +733,14 @@
       <c r="R5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -771,8 +795,14 @@
       <c r="R6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -827,8 +857,14 @@
       <c r="R7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -883,8 +919,14 @@
       <c r="R8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -939,8 +981,14 @@
       <c r="R9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -995,8 +1043,14 @@
       <c r="R10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1051,8 +1105,14 @@
       <c r="R11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1107,8 +1167,14 @@
       <c r="R12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1163,8 +1229,14 @@
       <c r="R13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1219,8 +1291,14 @@
       <c r="R14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1275,8 +1353,14 @@
       <c r="R15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1331,8 +1415,14 @@
       <c r="R16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1385,6 +1475,12 @@
         <v>15</v>
       </c>
       <c r="R17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86509BEA-4BDF-431E-8471-82AAB49BF39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311BDEE8-38D1-4831-831A-636F9CDDFBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -465,18 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC420ACD-8BCE-4ADA-A25D-42C9C16580A4}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="U3" sqref="U3:U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +537,11 @@
       <c r="T1" s="6">
         <v>44776</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="6">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -554,7 +557,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -615,8 +618,11 @@
       <c r="T3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -677,8 +683,11 @@
       <c r="T4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -739,8 +748,11 @@
       <c r="T5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -801,8 +813,11 @@
       <c r="T6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -863,8 +878,11 @@
       <c r="T7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -925,8 +943,11 @@
       <c r="T8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -987,8 +1008,11 @@
       <c r="T9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1049,8 +1073,11 @@
       <c r="T10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1111,8 +1138,11 @@
       <c r="T11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1173,8 +1203,11 @@
       <c r="T12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1235,8 +1268,11 @@
       <c r="T13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1297,8 +1333,11 @@
       <c r="T14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1359,8 +1398,11 @@
       <c r="T15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1421,8 +1463,11 @@
       <c r="T16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1481,6 +1526,9 @@
         <v>15</v>
       </c>
       <c r="T17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Attendenece_July_2022.xlsx
+++ b/Attendenece_July_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coditas\NetEltp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311BDEE8-38D1-4831-831A-636F9CDDFBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0797F5D5-E799-44A3-AF4A-3AD5BE4F5491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6397D94-3E00-4D3B-B13D-29E0F8688C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="19">
   <si>
     <t>Sr.No</t>
   </si>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC420ACD-8BCE-4ADA-A25D-42C9C16580A4}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U17"/>
+      <selection activeCell="V3" sqref="V3:V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +476,7 @@
     <col min="2" max="2" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +540,11 @@
       <c r="U1" s="6">
         <v>44777</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="6">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -557,7 +560,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -621,8 +624,11 @@
       <c r="U3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -686,8 +692,11 @@
       <c r="U4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -751,8 +760,11 @@
       <c r="U5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -816,8 +828,11 @@
       <c r="U6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -881,8 +896,11 @@
       <c r="U7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -946,8 +964,11 @@
       <c r="U8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1011,8 +1032,11 @@
       <c r="U9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1076,8 +1100,11 @@
       <c r="U10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1141,8 +1168,11 @@
       <c r="U11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1206,8 +1236,11 @@
       <c r="U12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1271,8 +1304,11 @@
       <c r="U13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1336,8 +1372,11 @@
       <c r="U14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1401,8 +1440,11 @@
       <c r="U15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1466,8 +1508,11 @@
       <c r="U16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1529,6 +1574,9 @@
         <v>15</v>
       </c>
       <c r="U17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
